--- a/sakila_etl.xlsx
+++ b/sakila_etl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoel\Google Drive\UNI7\MBA\MID\MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156F9EDD-B392-4127-938C-9958A441C9E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25AFD9-6C61-411A-8545-A94896EB6EE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>ETL</t>
   </si>
@@ -40,6 +40,103 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Fato</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>rateio_extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select customer_id, sum(amount) from payment where rental_id is null 
+group by customer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criterio rateio </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select rental_id, customer_id, 1 criterio_rateio
+from rental where customer_id in 
+( select customer_id from payment where rental_id is null )
+group by rental_id, customer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base rateio </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select customer_id, count(*) base_rateio
+from rental where customer_id in 
+( select customer_id from payment where rental_id is null )
+group by customer_id</t>
+  </si>
+  <si>
+    <t>fator rateio</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>valor rateio</t>
+  </si>
+  <si>
+    <t>fator*extra</t>
+  </si>
+  <si>
+    <t>select  date(rental_date) as rental_date, DATE_FORMAT(rental_date,  '%H') as rental_hour,  film_id, store_id, r.staff_id, r.customer_id, sum(amount) as amount 
+from rental r left join inventory i
+ on (r.inventory_id = i.inventory_id) left join payment p on (r.rental_id = p.rental_id)
+ group by date(rental_date) , DATE_FORMAT(rental_date,  '%H'),  film_id, store_id, r.staff_id, r.customer_id</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>select store_id, address from store s left join address a on (s.address_id = a.address_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">film </t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ select f.film_id, title, GROUP_CONCAT(name) as category from film f 
+ left join film_category fm on (f.film_id = fm.film_id)
+ left join category c on (fm.category_id = c.category_id)
+ group by f.film_id, title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select customer_id, concat(first_name,' ', last_name) as name , city, country	
+ from customer c left join address a on (c.address_id = a.address_id)
+ left join city t on (a.city_id = t.city_id)
+ left join country u on (u.country_id = t.country_id)
+ </t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select staff_id, concat(first_name,' ', last_name) as name  from staff
+ </t>
   </si>
 </sst>
 </file>
@@ -364,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,6 +491,116 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="2"/>

--- a/sakila_etl.xlsx
+++ b/sakila_etl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoel\Google Drive\UNI7\MBA\MID\MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25AFD9-6C61-411A-8545-A94896EB6EE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8EF658-158A-401E-8EFF-6AF302DF0D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sakila_etl.xlsx
+++ b/sakila_etl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoel\Google Drive\UNI7\MBA\MID\MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8EF658-158A-401E-8EFF-6AF302DF0D34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0775CEB-30C5-4C74-832A-EFAD34533E92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="144" windowWidth="15576" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ETL</t>
   </si>
@@ -51,37 +51,18 @@
     <t>rateio_extra</t>
   </si>
   <si>
-    <t xml:space="preserve">
-select customer_id, sum(amount) from payment where rental_id is null 
-group by customer_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">criterio rateio </t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">
-select rental_id, customer_id, 1 criterio_rateio
-from rental where customer_id in 
-( select customer_id from payment where rental_id is null )
-group by rental_id, customer_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">base rateio </t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">
-select customer_id, count(*) base_rateio
-from rental where customer_id in 
-( select customer_id from payment where rental_id is null )
-group by customer_id</t>
-  </si>
-  <si>
     <t>fator rateio</t>
   </si>
   <si>
@@ -91,18 +72,9 @@
     <t>extra</t>
   </si>
   <si>
-    <t>valor rateio</t>
-  </si>
-  <si>
     <t>fator*extra</t>
   </si>
   <si>
-    <t>select  date(rental_date) as rental_date, DATE_FORMAT(rental_date,  '%H') as rental_hour,  film_id, store_id, r.staff_id, r.customer_id, sum(amount) as amount 
-from rental r left join inventory i
- on (r.inventory_id = i.inventory_id) left join payment p on (r.rental_id = p.rental_id)
- group by date(rental_date) , DATE_FORMAT(rental_date,  '%H'),  film_id, store_id, r.staff_id, r.customer_id</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
@@ -116,13 +88,6 @@
   </si>
   <si>
     <t>stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- select f.film_id, title, GROUP_CONCAT(name) as category from film f 
- left join film_category fm on (f.film_id = fm.film_id)
- left join category c on (fm.category_id = c.category_id)
- group by f.film_id, title</t>
   </si>
   <si>
     <t xml:space="preserve">select customer_id, concat(first_name,' ', last_name) as name , city, country	
@@ -137,6 +102,73 @@
   <si>
     <t xml:space="preserve">select staff_id, concat(first_name,' ', last_name) as name  from staff
  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select f.film_id, title, category, actor from film f 
+ left join (select film_id, GROUP_CONCAT(y.name) as category from film_category fm left join category y on (fm.category_id = y.category_id) group by film_id) c on (f.film_id = c.film_id)
+ left join (select film_id,  GROUP_CONCAT(concat(first_name,' ', last_name)) from film_actor fa left join actor t on (fa.actor_id = t.actor_id) group by film_id) a on  (f.film_id = a.film_id) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select customer_id, sum(amount) as extra_amount from payment where rental_id is null 
+group by customer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select customer_id, rental_id,  1  as criterio_rateio
+from rental where customer_id in 
+( select customer_id from payment where rental_id is null )
+group by customer_id ,rental_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select customer_id, count(*) as base_rateio
+from rental where customer_id in 
+( select customer_id from payment where rental_id is null )
+group by customer_id</t>
+  </si>
+  <si>
+    <t>extra_rateio</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select  distinct year(rental_date) as year, month(rental_date) as month,  date(rental_date) as date from rental </t>
+  </si>
+  <si>
+    <t>select  r.rental_id as hash, date(rental_date) as rental_date, DATE_FORMAT(rental_date,  '%H') as rental_hour,  film_id, store_id, r.staff_id, r.customer_id, datediff(now(), rental_date) as age_rental,  datediff(now(), return_date) as age_return, sum(p.amount) as amount
+from rental r left join inventory i
+ on (r.inventory_id = i.inventory_id) 
+left join payment p on (r.rental_id = p.rental_id) 
+ group by r.rental_id , date(rental_date) , DATE_FORMAT(rental_date,  '%H'),  film_id, store_id, r.staff_id, r.customer_id, date(return_date)</t>
+  </si>
+  <si>
+    <t>NVL(extra_rateio,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra </t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>amount+extra</t>
+  </si>
+  <si>
+    <t>rental_duration</t>
+  </si>
+  <si>
+    <t>rental_age-rental_return</t>
+  </si>
+  <si>
+    <t>return_delay</t>
+  </si>
+  <si>
+    <t>if (rental_duration==null) rental_age else null</t>
   </si>
 </sst>
 </file>
@@ -459,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -499,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -510,103 +542,151 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/sakila_etl.xlsx
+++ b/sakila_etl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoel\Google Drive\UNI7\MBA\MID\MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0775CEB-30C5-4C74-832A-EFAD34533E92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B609564-AB1A-47F2-9DA3-9D7E8CE60C18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="144" windowWidth="15576" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>ETL</t>
   </si>
@@ -140,43 +140,54 @@
     <t xml:space="preserve">select  distinct year(rental_date) as year, month(rental_date) as month,  date(rental_date) as date from rental </t>
   </si>
   <si>
-    <t>select  r.rental_id as hash, date(rental_date) as rental_date, DATE_FORMAT(rental_date,  '%H') as rental_hour,  film_id, store_id, r.staff_id, r.customer_id, datediff(now(), rental_date) as age_rental,  datediff(now(), return_date) as age_return, sum(p.amount) as amount
+    <t>NVL(extra_rateio,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra </t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>amount+extra</t>
+  </si>
+  <si>
+    <t>rental_duration</t>
+  </si>
+  <si>
+    <t>return_delay</t>
+  </si>
+  <si>
+    <t>if (rental_duration==null) rental_age else null</t>
+  </si>
+  <si>
+    <t>select  r.rental_id as hash, date(rental_date) as rental_date, DATE_FORMAT(rental_date,  '%H') as rental_hour,  film_id, store_id, r.staff_id, r.customer_id, datediff(now(), rental_date) as rental_age,  datediff(now(), return_date) as return_age, sum(p.amount) as amount
 from rental r left join inventory i
  on (r.inventory_id = i.inventory_id) 
 left join payment p on (r.rental_id = p.rental_id) 
  group by r.rental_id , date(rental_date) , DATE_FORMAT(rental_date,  '%H'),  film_id, store_id, r.staff_id, r.customer_id, date(return_date)</t>
   </si>
   <si>
-    <t>NVL(extra_rateio,0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extra </t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>amount+extra</t>
-  </si>
-  <si>
-    <t>rental_duration</t>
-  </si>
-  <si>
-    <t>rental_age-rental_return</t>
-  </si>
-  <si>
-    <t>return_delay</t>
-  </si>
-  <si>
-    <t>if (rental_duration==null) rental_age else null</t>
+    <t>rental_age-return_age</t>
+  </si>
+  <si>
+    <t>====================== DIMENSÕES ==========================</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,13 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -594,102 +607,107 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>